--- a/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/_Cas3_interference_Mismatch_effect.xlsx
+++ b/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/_Cas3_interference_Mismatch_effect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/436c92d0988cb4a1/python/RESPECTevo-Code_Rawdata/2_Plotting_Statistics/2_Cas3_interference/rawdata_zip/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="880" documentId="11_119C83C562D1BE6B0602390C1DE32FB8FF7F8D43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AAC6BC6-9F59-4DF7-BA20-20C4D0CB3156}"/>
+  <xr:revisionPtr revIDLastSave="882" documentId="11_119C83C562D1BE6B0602390C1DE32FB8FF7F8D43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7107F4A-8CCE-4E19-B187-D6F454C9F25F}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3924" windowWidth="21600" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="3132" windowWidth="21600" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
-  <si>
-    <t>Interference rate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="13">
   <si>
     <t>Spacer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +78,14 @@
   </si>
   <si>
     <t>no crRNA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interference rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interference_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60DBF1E-250A-49A4-A526-FED5A21268FB}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
@@ -436,10 +441,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -447,7 +452,7 @@
         <v>571.42857142857144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -455,7 +460,7 @@
         <v>1700</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -463,7 +468,7 @@
         <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -471,7 +476,7 @@
         <v>600</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -479,7 +484,7 @@
         <v>833.33333333333337</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -487,7 +492,7 @@
         <v>1000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -495,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
@@ -503,7 +508,7 @@
         <v>22.142857142857142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -511,7 +516,7 @@
         <v>26.666666666666668</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -519,7 +524,7 @@
         <v>8.1818181818181817</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
@@ -527,7 +532,7 @@
         <v>17.777777777777779</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
@@ -535,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -543,7 +548,7 @@
         <v>1500</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -551,7 +556,7 @@
         <v>1350</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -559,7 +564,7 @@
         <v>1800</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -567,7 +572,7 @@
         <v>520</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -575,7 +580,7 @@
         <v>460</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -583,7 +588,7 @@
         <v>600</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -591,7 +596,7 @@
         <v>750</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -599,7 +604,7 @@
         <v>750</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -607,7 +612,7 @@
         <v>2000</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
@@ -615,7 +620,7 @@
         <v>666.66666666666663</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -623,7 +628,7 @@
         <v>666.66666666666663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
@@ -631,7 +636,7 @@
         <v>500</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -639,7 +644,7 @@
         <v>8000</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
@@ -647,7 +652,7 @@
         <v>5714.2857142857147</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
@@ -655,7 +660,7 @@
         <v>12500</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
@@ -663,7 +668,7 @@
         <v>15714.285714285714</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
@@ -671,7 +676,7 @@
         <v>3076.9230769230771</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
@@ -679,7 +684,7 @@
         <v>4285.7142857142853</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
@@ -687,7 +692,7 @@
         <v>200</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
@@ -695,7 +700,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
@@ -703,7 +708,7 @@
         <v>200</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
@@ -711,7 +716,7 @@
         <v>116.66666666666667</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -719,7 +724,7 @@
         <v>200</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
@@ -727,7 +732,7 @@
         <v>116.66666666666667</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -735,7 +740,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -743,7 +748,7 @@
         <v>1.25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -751,7 +756,7 @@
         <v>0.5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -759,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -767,7 +772,7 @@
         <v>1.55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
@@ -775,7 +780,7 @@
         <v>1.25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -788,9 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.4"/>
   <cols>
@@ -802,16 +805,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -820,7 +823,7 @@
         <v>571.42857142857144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <f>7*10^3</f>
@@ -837,7 +840,7 @@
         <v>1700</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <f>1*10^4</f>
@@ -854,7 +857,7 @@
         <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <f>10*10^3</f>
@@ -871,7 +874,7 @@
         <v>600</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <f>5*10^3</f>
@@ -888,7 +891,7 @@
         <v>833.33333333333337</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <f>6*10^3</f>
@@ -905,7 +908,7 @@
         <v>1000</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <f>9*10^3</f>
@@ -922,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <f>10*10^5</f>
@@ -939,7 +942,7 @@
         <v>22.142857142857142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <f>14*10^5</f>
@@ -956,7 +959,7 @@
         <v>26.666666666666668</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <f>6*10^5</f>
@@ -973,7 +976,7 @@
         <v>8.1818181818181817</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <f>11*10^5</f>
@@ -990,7 +993,7 @@
         <v>17.777777777777779</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
         <f>9*10^5</f>
@@ -1007,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <f>10*10^5</f>
@@ -1024,7 +1027,7 @@
         <v>1500</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1">
         <v>2000</v>
@@ -1040,7 +1043,7 @@
         <v>1350</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1">
         <v>2000</v>
@@ -1056,7 +1059,7 @@
         <v>1800</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>2000</v>
@@ -1072,7 +1075,7 @@
         <v>520</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="1">
         <v>5000</v>
@@ -1088,7 +1091,7 @@
         <v>460</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <v>5000</v>
@@ -1104,7 +1107,7 @@
         <v>600</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1">
         <v>5000</v>
@@ -1120,7 +1123,7 @@
         <v>750</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
         <f>4000</f>
@@ -1137,7 +1140,7 @@
         <v>750</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="1">
         <f>4000</f>
@@ -1154,7 +1157,7 @@
         <v>2000</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="1">
         <f>2000</f>
@@ -1171,7 +1174,7 @@
         <v>666.66666666666663</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1">
         <f>3000</f>
@@ -1188,7 +1191,7 @@
         <v>666.66666666666663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1">
         <f>6000</f>
@@ -1205,7 +1208,7 @@
         <v>500</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1">
         <f>6000</f>
@@ -1222,7 +1225,7 @@
         <v>8000</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1">
         <f>1000</f>
@@ -1239,7 +1242,7 @@
         <v>5714.2857142857147</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1">
         <f>700</f>
@@ -1256,7 +1259,7 @@
         <v>12500</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
         <f>400</f>
@@ -1273,7 +1276,7 @@
         <v>15714.285714285714</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1">
         <f>700</f>
@@ -1290,7 +1293,7 @@
         <v>3076.9230769230771</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
         <f>1300</f>
@@ -1307,7 +1310,7 @@
         <v>4285.7142857142853</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1">
         <f>700</f>
@@ -1324,7 +1327,7 @@
         <v>200</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <f>20000</f>
@@ -1341,7 +1344,7 @@
         <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <f>40000</f>
@@ -1358,7 +1361,7 @@
         <v>200</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <f>30000</f>
@@ -1375,7 +1378,7 @@
         <v>116.66666666666667</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
         <f>60000</f>
@@ -1392,7 +1395,7 @@
         <v>200</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1">
         <v>40000</v>
@@ -1408,7 +1411,7 @@
         <v>116.66666666666667</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D37" s="1">
         <v>60000</v>
@@ -1424,7 +1427,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>3000000</v>
@@ -1439,7 +1442,7 @@
         <v>1.25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
         <v>4000000</v>
@@ -1454,7 +1457,7 @@
         <v>0.5</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>4000000</v>
@@ -1469,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>2000000</v>
@@ -1484,7 +1487,7 @@
         <v>1.55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
         <v>2000000</v>
@@ -1499,7 +1502,7 @@
         <v>1.25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>4000000</v>
